--- a/test/expected/insert_image_fit_centered.xlsx
+++ b/test/expected/insert_image_fit_centered.xlsx
@@ -392,7 +392,7 @@
     <col min="1" max="1" width="28.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="100" customHeight="1"/>
+    <row r="1" ht="99.75" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
